--- a/data/テスト１.xlsx
+++ b/data/テスト１.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skato/ASQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skato/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CB055A-DA84-7940-A37B-5D6042EC90D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0401A-AC32-1B4F-B600-203EEF597EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{603F989B-2961-A242-8111-740BDD4FDB20}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>て,す,と</t>
   </si>
@@ -72,6 +70,30 @@
   </si>
   <si>
     <t>ウーはoo</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>f,__,d</t>
+  </si>
+  <si>
+    <t>__,_,_</t>
+  </si>
+  <si>
+    <t>_,__,_</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>o,o,?</t>
+  </si>
+  <si>
+    <t>f,o,o,d,?</t>
+  </si>
+  <si>
+    <t>t,e,s,t,?</t>
   </si>
 </sst>
 </file>
@@ -423,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59B951C-57D6-4E48-AD72-17C17DC44253}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -431,10 +453,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -445,13 +468,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -462,13 +491,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -479,9 +514,38 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
     </row>
